--- a/tests/unit/fixtures/template.xlsx
+++ b/tests/unit/fixtures/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\47-yii2-template-document\tests\unit\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754825E9-B791-4292-B2F1-09D50DCE6529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C0F093-3E96-4C6E-BAEE-774CCEACFF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{13D5085E-1090-4FBD-95BC-C2AF47E44C56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{13D5085E-1090-4FBD-95BC-C2AF47E44C56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>OrderItem：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>Qty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price($)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,6 +63,33 @@
   <si>
     <t>PhpSpreadsheet
 -{subtitle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>($)</t>
+  </si>
+  <si>
+    <t>{amount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{end}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{for:items}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttttt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +173,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -158,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7FCC31-BBD8-43AC-A6CA-1586DC6407F4}">
-  <dimension ref="A1:C6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,61 +524,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>